--- a/FakeProject/design/excel/game_const.xlsx
+++ b/FakeProject/design/excel/game_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>字段名字</t>
   </si>
@@ -41,6 +41,15 @@
   <si>
     <t>游戏版本号</t>
   </si>
+  <si>
+    <t>special_roll_count</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>转多少次获得特殊奖励</t>
+  </si>
 </sst>
 </file>
 
@@ -48,9 +57,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,15 +70,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,7 +117,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,23 +137,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -122,22 +155,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,41 +169,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,13 +209,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,11 +417,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,6 +452,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,6 +497,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -457,54 +514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -513,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -525,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,7 +1022,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1048,6 +1057,20 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="9:9">

--- a/FakeProject/design/excel/game_const.xlsx
+++ b/FakeProject/design/excel/game_const.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>字段名字</t>
   </si>
@@ -49,6 +49,25 @@
   </si>
   <si>
     <t>转多少次获得特殊奖励</t>
+  </si>
+  <si>
+    <t>notice_str</t>
+  </si>
+  <si>
+    <t>游戏公告:
+12333221231</t>
+  </si>
+  <si>
+    <t>游戏公告</t>
+  </si>
+  <si>
+    <t>douyin_id</t>
+  </si>
+  <si>
+    <t>douyin123</t>
+  </si>
+  <si>
+    <t>抖音号</t>
   </si>
 </sst>
 </file>
@@ -57,9 +76,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,16 +89,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,6 +171,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -101,61 +187,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,16 +218,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,29 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,31 +242,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,151 +362,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,15 +447,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,21 +476,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -497,15 +492,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -514,6 +500,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,16 +553,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,118 +574,121 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1022,12 +1044,13 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1073,8 +1096,36 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" ht="67.5" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="14" spans="9:9">
-      <c r="I14" s="1"/>
+      <c r="I14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FakeProject/design/excel/game_const.xlsx
+++ b/FakeProject/design/excel/game_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>字段名字</t>
   </si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>抖音号</t>
+  </si>
+  <si>
+    <t>officalVideoId</t>
+  </si>
+  <si>
+    <t>13101042082815640552404d0b7b116557022b4200724d615e534d4c097d466d5051434d0e7e</t>
+  </si>
+  <si>
+    <t>官方视频，未绑定官方账号时使用</t>
+  </si>
+  <si>
+    <t>officalAccountEnable</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>是否已开通官方账号</t>
   </si>
 </sst>
 </file>
@@ -75,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -90,7 +108,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,7 +122,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,30 +130,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,16 +145,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,6 +212,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -190,44 +246,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,17 +454,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,15 +509,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,26 +530,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -519,16 +537,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -541,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +571,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,7 +1062,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1096,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="67.5" spans="1:4">
+    <row r="4" ht="54" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1122,6 +1140,34 @@
       </c>
       <c r="D5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="9:9">

--- a/FakeProject/design/excel/game_const.xlsx
+++ b/FakeProject/design/excel/game_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28365" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>字段名字</t>
   </si>
@@ -70,13 +70,22 @@
     <t>抖音号</t>
   </si>
   <si>
-    <t>officalVideoId</t>
+    <t>douyinVideoId</t>
   </si>
   <si>
     <t>13101042082815640552404d0b7b116557022b4200724d615e534d4c097d466d5051434d0e7e</t>
   </si>
   <si>
     <t>官方视频，未绑定官方账号时使用</t>
+  </si>
+  <si>
+    <t>toutiaoVideoId</t>
+  </si>
+  <si>
+    <t>131017425d7b16645207414d5b28156606072b42017a4d62515346460e7f42675e554440087a</t>
+  </si>
+  <si>
+    <t>头条官方视频，未绑定官方账号时使用</t>
   </si>
   <si>
     <t>officalAccountEnable</t>
@@ -94,9 +103,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,29 +117,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,23 +160,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +207,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -190,62 +254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +269,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -272,175 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,26 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,26 +489,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,8 +514,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +534,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -559,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,17 +1068,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="77.75" customWidth="1"/>
+    <col min="4" max="4" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1114,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="1:4">
+    <row r="4" ht="40.5" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1161,17 +1170,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="9:9">
-      <c r="I14" s="2"/>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9">
+      <c r="I15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FakeProject/design/excel/game_const.xlsx
+++ b/FakeProject/design/excel/game_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28365" windowHeight="12975"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,10 @@
     <t>douyinVideoId</t>
   </si>
   <si>
-    <t>13101042082815640552404d0b7b116557022b4200724d615e534d4c097d466d5051434d0e7e</t>
-  </si>
-  <si>
-    <t>官方视频，未绑定官方账号时使用</t>
+    <t>13104c440c2b1262015345120e7a176d5f502b450e7a406356524d450b7e416155534c470a72</t>
+  </si>
+  <si>
+    <t>导量至小军团官方视频，未绑定官方账号时使用</t>
   </si>
   <si>
     <t>toutiaoVideoId</t>
@@ -103,9 +103,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -117,21 +117,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,9 +209,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,82 +259,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -269,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +460,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,33 +519,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,21 +533,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,11 +554,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,8 +1070,8 @@
   <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/FakeProject/design/excel/game_const.xlsx
+++ b/FakeProject/design/excel/game_const.xlsx
@@ -73,7 +73,7 @@
     <t>douyinVideoId</t>
   </si>
   <si>
-    <t>13104c440c2b1262015345120e7a176d5f502b450e7a406356524d450b7e416155534c470a72</t>
+    <t>13104d46097b1160060744100b28103705012b4201784163575d42430c7e406c505141400e7e</t>
   </si>
   <si>
     <t>导量至小军团官方视频，未绑定官方账号时使用</t>
@@ -117,6 +117,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -124,7 +161,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +194,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,52 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -200,28 +230,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -229,9 +246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,22 +255,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +460,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,15 +509,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,37 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/FakeProject/design/excel/game_const.xlsx
+++ b/FakeProject/design/excel/game_const.xlsx
@@ -82,7 +82,7 @@
     <t>toutiaoVideoId</t>
   </si>
   <si>
-    <t>131017425d7b16645207414d5b28156606072b42017a4d62515346460e7f42675e554440087a</t>
+    <t>13104115097f4637065c17410a2f4232025d2b42017f4264555747470b7a45655f5346410c7e</t>
   </si>
   <si>
     <t>头条官方视频，未绑定官方账号时使用</t>
@@ -102,8 +102,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -116,6 +116,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -123,23 +168,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,67 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -223,24 +224,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +255,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +269,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,169 +419,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,19 +466,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +483,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,15 +526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,8 +544,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,31 +580,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,100 +616,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/FakeProject/design/excel/game_const.xlsx
+++ b/FakeProject/design/excel/game_const.xlsx
@@ -82,7 +82,7 @@
     <t>toutiaoVideoId</t>
   </si>
   <si>
-    <t>13104115097f4637065c17410a2f4232025d2b42017f4264555747470b7a45655f5346410c7e</t>
+    <t>13104115097f4637065c17410a2f4232025d2b42017f42645e51454008724c645353464c0e7d</t>
   </si>
   <si>
     <t>头条官方视频，未绑定官方账号时使用</t>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,15 +118,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,35 +162,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,6 +175,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -192,16 +213,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,16 +238,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,28 +255,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,25 +275,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,139 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,11 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +502,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,41 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +551,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,43 +580,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -625,88 +625,88 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/FakeProject/design/excel/game_const.xlsx
+++ b/FakeProject/design/excel/game_const.xlsx
@@ -64,7 +64,7 @@
     <t>douyin_id</t>
   </si>
   <si>
-    <t>douyin123</t>
+    <t>飞小鸭游戏人</t>
   </si>
   <si>
     <t>抖音号</t>
@@ -76,7 +76,7 @@
     <t>13104d46097b1160060744100b28103705012b4201784163575d42430c7e406c505141400e7e</t>
   </si>
   <si>
-    <t>导量至小军团官方视频，未绑定官方账号时使用</t>
+    <t>导量至飞小鸭官方视频，未开通官方账号时使用</t>
   </si>
   <si>
     <t>toutiaoVideoId</t>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,9 +116,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +162,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -154,16 +207,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,86 +245,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,19 +269,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,157 +389,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,16 +463,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -496,8 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,17 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,22 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
